--- a/Model Inputs BROMFENAC.xlsx
+++ b/Model Inputs BROMFENAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182A506-932A-4815-8844-12238DE92E48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07715BD3-F802-4453-B973-5CD1BE53ED70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -837,29 +837,27 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -873,43 +871,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1311,17 +1311,17 @@
         <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="J4" s="62" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="J4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -1330,15 +1330,15 @@
       <c r="B5" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="J5" s="55" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="J5" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1347,15 +1347,15 @@
       <c r="B6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="J6" s="66" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="J6" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1364,30 +1364,30 @@
       <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="J7" s="54" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="J7" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="47"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="J8" s="51" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="J8" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -1396,35 +1396,35 @@
       <c r="B9" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="J9" s="63" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="J9" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1433,10 +1433,10 @@
       <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1445,30 +1445,30 @@
       <c r="B13" s="45">
         <v>2020</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="47"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1476,10 +1476,10 @@
         <v>101</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1487,10 +1487,10 @@
         <v>65</v>
       </c>
       <c r="B17" s="47"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,12 +1500,12 @@
       <c r="B18" s="46">
         <v>1</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1513,10 +1513,10 @@
         <v>63</v>
       </c>
       <c r="B19" s="47"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1526,10 +1526,10 @@
       <c r="B20" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1540,12 +1540,12 @@
         <v>49</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1555,10 +1555,10 @@
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1568,10 +1568,10 @@
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1579,14 +1579,14 @@
         <v>71</v>
       </c>
       <c r="B25" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="61" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1596,12 +1596,12 @@
       <c r="B26" s="26">
         <v>0.1</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1610,12 +1610,12 @@
       </c>
       <c r="B27" s="40">
         <f>SUM(B25:B26)</f>
-        <v>0.6</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+        <v>0.35</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1630,12 +1630,12 @@
         <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1644,10 +1644,10 @@
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
@@ -1656,10 +1656,10 @@
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
@@ -1668,10 +1668,10 @@
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -1680,10 +1680,10 @@
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1692,10 +1692,10 @@
       <c r="B35" s="44">
         <v>0</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1704,10 +1704,10 @@
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1716,10 +1716,10 @@
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1728,12 +1728,12 @@
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -1743,12 +1743,12 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1761,12 +1761,12 @@
         <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -1775,12 +1775,12 @@
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -1789,12 +1789,12 @@
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1803,12 +1803,12 @@
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1817,12 +1817,12 @@
         <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
@@ -1831,12 +1831,12 @@
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -1845,12 +1845,12 @@
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -1859,12 +1859,12 @@
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1990,40 +1990,41 @@
         <v>104</v>
       </c>
       <c r="B57" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L57" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" s="32">
-        <v>3</v>
+        <f>L57</f>
+        <v>4</v>
       </c>
       <c r="N57" s="37" t="s">
         <v>103</v>
@@ -2034,41 +2035,41 @@
         <v>100</v>
       </c>
       <c r="B58" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="31">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D58" s="31">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E58" s="31">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F58" s="31">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G58" s="31">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H58" s="31">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="I58" s="31">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="J58" s="31">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="K58" s="31">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="L58" s="31">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="M58" s="31">
-        <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <f>L58</f>
+        <v>0.15</v>
       </c>
       <c r="N58" s="37" t="s">
         <v>141</v>
@@ -2897,6 +2898,37 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2913,37 +2945,6 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B25:B26">
